--- a/documentation/Brogrammers 2.0.2_Deliverable_3_SprintBacklog_4.xlsx
+++ b/documentation/Brogrammers 2.0.2_Deliverable_3_SprintBacklog_4.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>Story Points Completed by member participation</t>
   </si>
@@ -52,58 +52,28 @@
     <t>Day 5</t>
   </si>
   <si>
-    <t>00017</t>
+    <t>N/A</t>
   </si>
   <si>
-    <t>Login Page</t>
+    <t>Bug fixes</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>As a &lt;player&gt;, I need to &lt;have a login&gt; , because I want to &lt;save my progress&gt;.</t>
-  </si>
-  <si>
-    <t>F (functional), T (technical)</t>
-  </si>
-  <si>
-    <t>Sign Up</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>3 (Felix)</t>
-  </si>
-  <si>
-    <t>2 (Felix)</t>
-  </si>
-  <si>
-    <t>10 (Felix)</t>
-  </si>
-  <si>
-    <t>5 (Felix)</t>
+    <t>Login Bug</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>General Account</t>
+    <t>Felix (10)</t>
   </si>
   <si>
-    <t>10</t>
+    <t>Sign Up Bug</t>
   </si>
   <si>
-    <t>7 (Felix)</t>
+    <t xml:space="preserve">- </t>
   </si>
   <si>
-    <t>Educator Account</t>
-  </si>
-  <si>
-    <t>Guest Button</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>Jason (10)</t>
   </si>
   <si>
     <t>00019</t>
@@ -112,47 +82,42 @@
     <t>Main Menu</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>As a &lt;player&gt;, I need to &lt;have a main menu&gt;, because I want to &lt;select different options&gt;.</t>
   </si>
   <si>
-    <t>Level Select Button</t>
+    <t>F(Funcitonal) 
+T (Technical)</t>
   </si>
   <si>
-    <t>3 (Jason)</t>
+    <t>Update the sign-up page</t>
   </si>
   <si>
-    <t>Tutorial Button</t>
+    <t>30</t>
   </si>
   <si>
-    <t>2 (Jason)</t>
+    <t>Ryan (10)</t>
   </si>
   <si>
-    <t>Logout Button</t>
+    <t>Link guests to gameplay</t>
   </si>
   <si>
-    <t>Settings Button</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1 (Jason)</t>
+    <t xml:space="preserve">Ryan (10) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
-    <font>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -174,65 +139,13 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -251,41 +164,17 @@
     <xf borderId="0" fillId="3" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -301,6 +190,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -308,7 +200,7 @@
   <cols>
     <col customWidth="1" min="2" max="2" width="10.57"/>
     <col customWidth="1" min="3" max="3" width="13.14"/>
-    <col customWidth="1" min="4" max="4" width="23.29"/>
+    <col customWidth="1" min="4" max="4" width="45.71"/>
     <col customWidth="1" min="5" max="5" width="13.57"/>
     <col customWidth="1" min="6" max="6" width="29.0"/>
     <col customWidth="1" min="7" max="7" width="19.71"/>
@@ -323,9 +215,11 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -342,41 +236,15 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>12</v>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -394,41 +262,41 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>13</v>
+      <c r="A3" s="2" t="s">
+        <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>14</v>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>15</v>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>16</v>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>17</v>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>18</v>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>19</v>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>20</v>
+      <c r="H3" s="4" t="s">
+        <v>8</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>21</v>
+      <c r="I3" s="5" t="s">
+        <v>9</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>22</v>
+      <c r="J3" s="5" t="s">
+        <v>10</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>23</v>
+      <c r="K3" s="5" t="s">
+        <v>11</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>24</v>
+      <c r="L3" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -446,27 +314,41 @@
       <c r="Z3" s="1"/>
     </row>
     <row r="4">
-      <c r="A4" s="11"/>
-      <c r="F4" s="12" t="s">
-        <v>25</v>
+      <c r="A4" s="6" t="s">
+        <v>13</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>26</v>
+      <c r="B4" s="6" t="s">
+        <v>14</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>20</v>
+      <c r="C4" s="6">
+        <v>4.0</v>
       </c>
-      <c r="I4" s="12" t="s">
-        <v>27</v>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>24</v>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
       </c>
-      <c r="K4" s="12" t="s">
-        <v>24</v>
+      <c r="F4" s="7" t="s">
+        <v>15</v>
       </c>
-      <c r="L4" s="13" t="s">
-        <v>24</v>
+      <c r="G4" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -484,27 +366,26 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5">
-      <c r="A5" s="11"/>
-      <c r="F5" s="12" t="s">
-        <v>28</v>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>26</v>
+      <c r="G5" s="7">
+        <v>10.0</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="12" t="s">
-        <v>27</v>
+      <c r="J5" s="8" t="s">
+        <v>16</v>
       </c>
-      <c r="J5" s="12" t="s">
-        <v>24</v>
+      <c r="K5" s="8" t="s">
+        <v>16</v>
       </c>
-      <c r="K5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>24</v>
+      <c r="L5" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -522,31 +403,41 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16" t="s">
-        <v>29</v>
+      <c r="A6" s="8" t="s">
+        <v>21</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>30</v>
+      <c r="B6" s="8" t="s">
+        <v>22</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="C6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="16" t="s">
-        <v>24</v>
+      <c r="J6" s="8" t="s">
+        <v>16</v>
       </c>
-      <c r="J6" s="16" t="s">
-        <v>24</v>
+      <c r="K6" s="8" t="s">
+        <v>16</v>
       </c>
-      <c r="K6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>24</v>
+      <c r="L6" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -564,41 +455,26 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>31</v>
+      <c r="F7" s="8" t="s">
+        <v>29</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>32</v>
+      <c r="G7" s="8" t="s">
+        <v>27</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>34</v>
+      <c r="I7" s="8" t="s">
+        <v>30</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>19</v>
+      <c r="J7" s="8" t="s">
+        <v>16</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>35</v>
+      <c r="K7" s="8" t="s">
+        <v>16</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>24</v>
+      <c r="L7" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -616,28 +492,18 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="11"/>
-      <c r="F8" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -654,28 +520,18 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="11"/>
-      <c r="F9" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -692,30 +548,18 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>24</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -816,6 +660,15 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -835,6 +688,15 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -854,6 +716,15 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -28116,327 +27987,19 @@
       <c r="Y989" s="1"/>
       <c r="Z989" s="1"/>
     </row>
-    <row r="990">
-      <c r="A990" s="1"/>
-      <c r="B990" s="1"/>
-      <c r="C990" s="1"/>
-      <c r="D990" s="1"/>
-      <c r="E990" s="1"/>
-      <c r="F990" s="1"/>
-      <c r="G990" s="1"/>
-      <c r="H990" s="1"/>
-      <c r="I990" s="1"/>
-      <c r="J990" s="1"/>
-      <c r="K990" s="1"/>
-      <c r="L990" s="1"/>
-      <c r="M990" s="1"/>
-      <c r="N990" s="1"/>
-      <c r="O990" s="1"/>
-      <c r="P990" s="1"/>
-      <c r="Q990" s="1"/>
-      <c r="R990" s="1"/>
-      <c r="S990" s="1"/>
-      <c r="T990" s="1"/>
-      <c r="U990" s="1"/>
-      <c r="V990" s="1"/>
-      <c r="W990" s="1"/>
-      <c r="X990" s="1"/>
-      <c r="Y990" s="1"/>
-      <c r="Z990" s="1"/>
-    </row>
-    <row r="991">
-      <c r="A991" s="1"/>
-      <c r="B991" s="1"/>
-      <c r="C991" s="1"/>
-      <c r="D991" s="1"/>
-      <c r="E991" s="1"/>
-      <c r="F991" s="1"/>
-      <c r="G991" s="1"/>
-      <c r="H991" s="1"/>
-      <c r="I991" s="1"/>
-      <c r="J991" s="1"/>
-      <c r="K991" s="1"/>
-      <c r="L991" s="1"/>
-      <c r="M991" s="1"/>
-      <c r="N991" s="1"/>
-      <c r="O991" s="1"/>
-      <c r="P991" s="1"/>
-      <c r="Q991" s="1"/>
-      <c r="R991" s="1"/>
-      <c r="S991" s="1"/>
-      <c r="T991" s="1"/>
-      <c r="U991" s="1"/>
-      <c r="V991" s="1"/>
-      <c r="W991" s="1"/>
-      <c r="X991" s="1"/>
-      <c r="Y991" s="1"/>
-      <c r="Z991" s="1"/>
-    </row>
-    <row r="992">
-      <c r="A992" s="1"/>
-      <c r="B992" s="1"/>
-      <c r="C992" s="1"/>
-      <c r="D992" s="1"/>
-      <c r="E992" s="1"/>
-      <c r="F992" s="1"/>
-      <c r="G992" s="1"/>
-      <c r="H992" s="1"/>
-      <c r="I992" s="1"/>
-      <c r="J992" s="1"/>
-      <c r="K992" s="1"/>
-      <c r="L992" s="1"/>
-      <c r="M992" s="1"/>
-      <c r="N992" s="1"/>
-      <c r="O992" s="1"/>
-      <c r="P992" s="1"/>
-      <c r="Q992" s="1"/>
-      <c r="R992" s="1"/>
-      <c r="S992" s="1"/>
-      <c r="T992" s="1"/>
-      <c r="U992" s="1"/>
-      <c r="V992" s="1"/>
-      <c r="W992" s="1"/>
-      <c r="X992" s="1"/>
-      <c r="Y992" s="1"/>
-      <c r="Z992" s="1"/>
-    </row>
-    <row r="993">
-      <c r="A993" s="1"/>
-      <c r="B993" s="1"/>
-      <c r="C993" s="1"/>
-      <c r="D993" s="1"/>
-      <c r="E993" s="1"/>
-      <c r="F993" s="1"/>
-      <c r="G993" s="1"/>
-      <c r="H993" s="1"/>
-      <c r="I993" s="1"/>
-      <c r="J993" s="1"/>
-      <c r="K993" s="1"/>
-      <c r="L993" s="1"/>
-      <c r="M993" s="1"/>
-      <c r="N993" s="1"/>
-      <c r="O993" s="1"/>
-      <c r="P993" s="1"/>
-      <c r="Q993" s="1"/>
-      <c r="R993" s="1"/>
-      <c r="S993" s="1"/>
-      <c r="T993" s="1"/>
-      <c r="U993" s="1"/>
-      <c r="V993" s="1"/>
-      <c r="W993" s="1"/>
-      <c r="X993" s="1"/>
-      <c r="Y993" s="1"/>
-      <c r="Z993" s="1"/>
-    </row>
-    <row r="994">
-      <c r="A994" s="1"/>
-      <c r="B994" s="1"/>
-      <c r="C994" s="1"/>
-      <c r="D994" s="1"/>
-      <c r="E994" s="1"/>
-      <c r="F994" s="1"/>
-      <c r="G994" s="1"/>
-      <c r="H994" s="1"/>
-      <c r="I994" s="1"/>
-      <c r="J994" s="1"/>
-      <c r="K994" s="1"/>
-      <c r="L994" s="1"/>
-      <c r="M994" s="1"/>
-      <c r="N994" s="1"/>
-      <c r="O994" s="1"/>
-      <c r="P994" s="1"/>
-      <c r="Q994" s="1"/>
-      <c r="R994" s="1"/>
-      <c r="S994" s="1"/>
-      <c r="T994" s="1"/>
-      <c r="U994" s="1"/>
-      <c r="V994" s="1"/>
-      <c r="W994" s="1"/>
-      <c r="X994" s="1"/>
-      <c r="Y994" s="1"/>
-      <c r="Z994" s="1"/>
-    </row>
-    <row r="995">
-      <c r="A995" s="1"/>
-      <c r="B995" s="1"/>
-      <c r="C995" s="1"/>
-      <c r="D995" s="1"/>
-      <c r="E995" s="1"/>
-      <c r="F995" s="1"/>
-      <c r="G995" s="1"/>
-      <c r="H995" s="1"/>
-      <c r="I995" s="1"/>
-      <c r="J995" s="1"/>
-      <c r="K995" s="1"/>
-      <c r="L995" s="1"/>
-      <c r="M995" s="1"/>
-      <c r="N995" s="1"/>
-      <c r="O995" s="1"/>
-      <c r="P995" s="1"/>
-      <c r="Q995" s="1"/>
-      <c r="R995" s="1"/>
-      <c r="S995" s="1"/>
-      <c r="T995" s="1"/>
-      <c r="U995" s="1"/>
-      <c r="V995" s="1"/>
-      <c r="W995" s="1"/>
-      <c r="X995" s="1"/>
-      <c r="Y995" s="1"/>
-      <c r="Z995" s="1"/>
-    </row>
-    <row r="996">
-      <c r="A996" s="1"/>
-      <c r="B996" s="1"/>
-      <c r="C996" s="1"/>
-      <c r="D996" s="1"/>
-      <c r="E996" s="1"/>
-      <c r="F996" s="1"/>
-      <c r="G996" s="1"/>
-      <c r="H996" s="1"/>
-      <c r="I996" s="1"/>
-      <c r="J996" s="1"/>
-      <c r="K996" s="1"/>
-      <c r="L996" s="1"/>
-      <c r="M996" s="1"/>
-      <c r="N996" s="1"/>
-      <c r="O996" s="1"/>
-      <c r="P996" s="1"/>
-      <c r="Q996" s="1"/>
-      <c r="R996" s="1"/>
-      <c r="S996" s="1"/>
-      <c r="T996" s="1"/>
-      <c r="U996" s="1"/>
-      <c r="V996" s="1"/>
-      <c r="W996" s="1"/>
-      <c r="X996" s="1"/>
-      <c r="Y996" s="1"/>
-      <c r="Z996" s="1"/>
-    </row>
-    <row r="997">
-      <c r="A997" s="1"/>
-      <c r="B997" s="1"/>
-      <c r="C997" s="1"/>
-      <c r="D997" s="1"/>
-      <c r="E997" s="1"/>
-      <c r="F997" s="1"/>
-      <c r="G997" s="1"/>
-      <c r="H997" s="1"/>
-      <c r="I997" s="1"/>
-      <c r="J997" s="1"/>
-      <c r="K997" s="1"/>
-      <c r="L997" s="1"/>
-      <c r="M997" s="1"/>
-      <c r="N997" s="1"/>
-      <c r="O997" s="1"/>
-      <c r="P997" s="1"/>
-      <c r="Q997" s="1"/>
-      <c r="R997" s="1"/>
-      <c r="S997" s="1"/>
-      <c r="T997" s="1"/>
-      <c r="U997" s="1"/>
-      <c r="V997" s="1"/>
-      <c r="W997" s="1"/>
-      <c r="X997" s="1"/>
-      <c r="Y997" s="1"/>
-      <c r="Z997" s="1"/>
-    </row>
-    <row r="998">
-      <c r="A998" s="1"/>
-      <c r="B998" s="1"/>
-      <c r="C998" s="1"/>
-      <c r="D998" s="1"/>
-      <c r="E998" s="1"/>
-      <c r="F998" s="1"/>
-      <c r="G998" s="1"/>
-      <c r="H998" s="1"/>
-      <c r="I998" s="1"/>
-      <c r="J998" s="1"/>
-      <c r="K998" s="1"/>
-      <c r="L998" s="1"/>
-      <c r="M998" s="1"/>
-      <c r="N998" s="1"/>
-      <c r="O998" s="1"/>
-      <c r="P998" s="1"/>
-      <c r="Q998" s="1"/>
-      <c r="R998" s="1"/>
-      <c r="S998" s="1"/>
-      <c r="T998" s="1"/>
-      <c r="U998" s="1"/>
-      <c r="V998" s="1"/>
-      <c r="W998" s="1"/>
-      <c r="X998" s="1"/>
-      <c r="Y998" s="1"/>
-      <c r="Z998" s="1"/>
-    </row>
-    <row r="999">
-      <c r="A999" s="1"/>
-      <c r="B999" s="1"/>
-      <c r="C999" s="1"/>
-      <c r="D999" s="1"/>
-      <c r="E999" s="1"/>
-      <c r="F999" s="1"/>
-      <c r="G999" s="1"/>
-      <c r="H999" s="1"/>
-      <c r="I999" s="1"/>
-      <c r="J999" s="1"/>
-      <c r="K999" s="1"/>
-      <c r="L999" s="1"/>
-      <c r="M999" s="1"/>
-      <c r="N999" s="1"/>
-      <c r="O999" s="1"/>
-      <c r="P999" s="1"/>
-      <c r="Q999" s="1"/>
-      <c r="R999" s="1"/>
-      <c r="S999" s="1"/>
-      <c r="T999" s="1"/>
-      <c r="U999" s="1"/>
-      <c r="V999" s="1"/>
-      <c r="W999" s="1"/>
-      <c r="X999" s="1"/>
-      <c r="Y999" s="1"/>
-      <c r="Z999" s="1"/>
-    </row>
-    <row r="1000">
-      <c r="A1000" s="1"/>
-      <c r="B1000" s="1"/>
-      <c r="C1000" s="1"/>
-      <c r="D1000" s="1"/>
-      <c r="E1000" s="1"/>
-      <c r="F1000" s="1"/>
-      <c r="G1000" s="1"/>
-      <c r="H1000" s="1"/>
-      <c r="I1000" s="1"/>
-      <c r="J1000" s="1"/>
-      <c r="K1000" s="1"/>
-      <c r="L1000" s="1"/>
-      <c r="M1000" s="1"/>
-      <c r="N1000" s="1"/>
-      <c r="O1000" s="1"/>
-      <c r="P1000" s="1"/>
-      <c r="Q1000" s="1"/>
-      <c r="R1000" s="1"/>
-      <c r="S1000" s="1"/>
-      <c r="T1000" s="1"/>
-      <c r="U1000" s="1"/>
-      <c r="V1000" s="1"/>
-      <c r="W1000" s="1"/>
-      <c r="X1000" s="1"/>
-      <c r="Y1000" s="1"/>
-      <c r="Z1000" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
